--- a/db/AiCity-71-廚藝教室.xlsx
+++ b/db/AiCity-71-廚藝教室.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328D7D55-1BDF-2043-8A71-F78AD68B73C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC6BD2A-E157-3D46-A15A-796CADD2DD01}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4220" yWindow="2160" windowWidth="30880" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14640" yWindow="4500" windowWidth="30880" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transformed by JSON-CSV.CO" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="58">
   <si>
     <t>id</t>
   </si>
@@ -239,6 +239,22 @@
   </si>
   <si>
     <t>鲜奶茶-熱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>厚片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬆餅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>咖啡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶飲</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -611,10 +627,10 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -854,7 +870,7 @@
         <v>30</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>7</v>
@@ -877,7 +893,7 @@
         <v>31</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>7</v>
@@ -900,7 +916,7 @@
         <v>32</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>7</v>
@@ -923,7 +939,7 @@
         <v>33</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>7</v>
@@ -992,7 +1008,7 @@
         <v>40</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>7</v>
@@ -1015,7 +1031,7 @@
         <v>40</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>7</v>
@@ -1038,7 +1054,7 @@
         <v>40</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>7</v>
@@ -1061,7 +1077,7 @@
         <v>22</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>7</v>
@@ -1084,7 +1100,7 @@
         <v>22</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>7</v>
@@ -1107,7 +1123,7 @@
         <v>22</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>7</v>
@@ -1130,7 +1146,7 @@
         <v>22</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>7</v>
@@ -1153,7 +1169,7 @@
         <v>22</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>7</v>
@@ -1176,7 +1192,7 @@
         <v>22</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>7</v>
@@ -1199,7 +1215,7 @@
         <v>22</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>7</v>
@@ -1222,7 +1238,7 @@
         <v>22</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>7</v>
@@ -1245,7 +1261,7 @@
         <v>22</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>7</v>
@@ -1268,7 +1284,7 @@
         <v>22</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>7</v>
